--- a/Elevexcel.xlsx
+++ b/Elevexcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
   <si>
     <t>Instruktør</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>vict4465</t>
+  </si>
+  <si>
+    <t>sune1275</t>
   </si>
 </sst>
 </file>
@@ -945,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,6 +2021,9 @@
       <c r="C63" s="10" t="s">
         <v>76</v>
       </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
       <c r="E63">
         <v>2</v>
       </c>
